--- a/Data/07_02_2019_Map_CheBI_BiGG.xlsx
+++ b/Data/07_02_2019_Map_CheBI_BiGG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenvanheck/Dropbox/PhD_WUR/Projects/2016_11_20_Cryptococcus/Matlab/2017_11_15_Start_Over/Final_functions/Convert_ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D364FD-6F3C-9B4E-A5AD-D3A8A2E1F486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C7E4F2-F8D1-9B4B-B360-A6D31BB7C42A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35780" yWindow="160" windowWidth="34720" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34720" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_08_2018_Map_CheBI_BiGG" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="1811">
   <si>
     <t xml:space="preserve">(R)-2,3-dihydroxy-3-methylbutanoate </t>
   </si>
@@ -4586,9 +4586,6 @@
     <t>sucr</t>
   </si>
   <si>
-    <t>tag_cho</t>
-  </si>
-  <si>
     <t>uri</t>
   </si>
   <si>
@@ -5451,6 +5448,15 @@
   </si>
   <si>
     <t>dnad</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>co2</t>
   </si>
 </sst>
 </file>
@@ -6425,8 +6431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D697" sqref="D697"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A272" sqref="A272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6440,22 +6446,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1733</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1734</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1735</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>1736</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>1737</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6589,7 +6595,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1497</v>
@@ -7263,7 +7269,7 @@
         <v>163</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1497</v>
@@ -8524,6 +8530,12 @@
       <c r="A145" s="1" t="s">
         <v>421</v>
       </c>
+      <c r="B145" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1497</v>
+      </c>
       <c r="D145" s="1" t="s">
         <v>422</v>
       </c>
@@ -10671,7 +10683,7 @@
         <v>851</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1520</v>
+        <v>1809</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>1497</v>
@@ -10733,7 +10745,7 @@
         <v>863</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>1497</v>
@@ -10767,7 +10779,7 @@
         <v>869</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>1497</v>
@@ -10801,7 +10813,7 @@
         <v>875</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>1497</v>
@@ -10855,7 +10867,7 @@
         <v>884</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>1497</v>
@@ -11032,10 +11044,10 @@
         <v>912</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -11074,10 +11086,10 @@
         <v>918</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -11365,7 +11377,7 @@
         <v>959</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>1497</v>
@@ -11385,7 +11397,7 @@
         <v>961</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>1497</v>
@@ -11405,7 +11417,7 @@
         <v>963</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>1497</v>
@@ -11425,7 +11437,7 @@
         <v>965</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>1497</v>
@@ -11627,7 +11639,7 @@
         <v>993</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>1497</v>
@@ -12235,7 +12247,7 @@
         <v>1079</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1497</v>
@@ -12619,7 +12631,7 @@
         <v>1132</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1497</v>
@@ -12768,7 +12780,7 @@
         <v>1153</v>
       </c>
       <c r="E435" s="6" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F435" s="6">
         <v>16436</v>
@@ -12782,7 +12794,7 @@
         <v>1155</v>
       </c>
       <c r="E436" s="6" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F436" s="6">
         <v>16732</v>
@@ -12866,7 +12878,7 @@
         <v>1167</v>
       </c>
       <c r="E442" s="6" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F442" s="6">
         <v>16238</v>
@@ -12880,7 +12892,7 @@
         <v>1169</v>
       </c>
       <c r="E443" s="6" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="F443" s="6">
         <v>17877</v>
@@ -13003,7 +13015,7 @@
         <v>1186</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>1497</v>
@@ -13023,7 +13035,7 @@
         <v>1188</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>1497</v>
@@ -13071,7 +13083,7 @@
         <v>1194</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>1497</v>
@@ -13147,7 +13159,7 @@
         <v>1204</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>1497</v>
@@ -13436,7 +13448,7 @@
         <v>1245</v>
       </c>
       <c r="E481" s="6" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F481" s="6">
         <v>16908</v>
@@ -13450,7 +13462,7 @@
         <v>1247</v>
       </c>
       <c r="E482" s="6" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F482" s="6">
         <v>18009</v>
@@ -13464,7 +13476,7 @@
         <v>1249</v>
       </c>
       <c r="E483" s="6" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F483" s="6">
         <v>16474</v>
@@ -13475,7 +13487,7 @@
         <v>1250</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>1497</v>
@@ -13803,7 +13815,7 @@
         <v>1296</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>1497</v>
@@ -13878,6 +13890,12 @@
       <c r="A512" s="1" t="s">
         <v>1306</v>
       </c>
+      <c r="B512" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1497</v>
+      </c>
       <c r="D512" s="1" t="s">
         <v>1307</v>
       </c>
@@ -13910,7 +13928,7 @@
         <v>1311</v>
       </c>
       <c r="E514" s="6" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F514" s="6">
         <v>16383</v>
@@ -13924,10 +13942,10 @@
         <v>1313</v>
       </c>
       <c r="E515" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
@@ -13938,7 +13956,7 @@
         <v>1315</v>
       </c>
       <c r="E516" s="6" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F516" s="6">
         <v>18304</v>
@@ -14187,7 +14205,7 @@
         <v>1350</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>1497</v>
@@ -14249,7 +14267,7 @@
         <v>1358</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>1497</v>
@@ -14493,7 +14511,7 @@
         <v>1392</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>1497</v>
@@ -14558,10 +14576,10 @@
         <v>1401</v>
       </c>
       <c r="E559" s="6" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.2">
@@ -14796,10 +14814,10 @@
         <v>1435</v>
       </c>
       <c r="E576" s="6" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.2">
@@ -14877,7 +14895,7 @@
         <v>1446</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>1497</v>
@@ -14897,7 +14915,7 @@
         <v>1448</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>1497</v>
@@ -14987,7 +15005,7 @@
         <v>1460</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>1497</v>
@@ -15077,7 +15095,7 @@
         <v>1472</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>1497</v>
@@ -15262,403 +15280,403 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E608" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E609" s="6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E610" s="6" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E611" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E612" s="6" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E613" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E614" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E615" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F615" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E616" s="6" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F616" s="6" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E617" s="6" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E618" s="6" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E619" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F619" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E620" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F620" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E621" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F621" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E622" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E623" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E624" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E625" s="6" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="F625" s="6" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E626" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E627" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E628" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E629" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F629" s="6" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E630" s="6" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F630" s="6" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E631" s="6" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E632" s="6" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E633" s="6" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="F633" s="6" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E634" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E635" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E636" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F636" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E637" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F637" s="6" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E638" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F638" s="6" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E639" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F639" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E640" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="F640" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E641" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F641" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E642" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="F642" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E643" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="F643" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E644">
         <v>17909</v>
@@ -15669,18 +15687,18 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E645" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F645" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B646"/>
       <c r="E646">
@@ -15692,7 +15710,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E647">
         <v>65193</v>
@@ -15703,7 +15721,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E648">
         <v>62715</v>
@@ -15714,7 +15732,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E649">
         <v>60443</v>
@@ -15725,7 +15743,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E650">
         <v>62719</v>
@@ -15736,7 +15754,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E651">
         <v>60441</v>
@@ -15747,7 +15765,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E652">
         <v>62717</v>
@@ -15758,7 +15776,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E653">
         <v>60445</v>
@@ -15769,7 +15787,7 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E654">
         <v>53005</v>
@@ -15780,7 +15798,7 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E655">
         <v>60446</v>
@@ -15791,7 +15809,7 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E656">
         <v>62684</v>
@@ -15802,7 +15820,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E657">
         <v>65091</v>
@@ -15813,7 +15831,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E658">
         <v>65089</v>
@@ -15824,7 +15842,7 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E659">
         <v>60410</v>
@@ -15835,7 +15853,7 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E660">
         <v>60412</v>
@@ -15846,7 +15864,7 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E661">
         <v>65095</v>
@@ -15857,7 +15875,7 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E662">
         <v>65094</v>
@@ -15868,7 +15886,7 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E663">
         <v>60413</v>
@@ -15879,7 +15897,7 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E664">
         <v>53004</v>
@@ -15890,7 +15908,7 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E665">
         <v>60414</v>
@@ -15901,7 +15919,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E666">
         <v>60415</v>
@@ -15912,18 +15930,18 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E667" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F667" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E668">
         <v>52975</v>
@@ -15934,18 +15952,18 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E669" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="F669" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E670">
         <v>53026</v>
@@ -15956,194 +15974,194 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A671" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E671" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F671" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E672" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F672" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E673" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="F673" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E674" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F674" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E675" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="F675" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E676" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F676" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E677" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F677" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E678" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F678" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A679" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E679" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F679" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A680" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E680" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="F680" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681" s="2" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E681" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="F681" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E682" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="F682" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E683" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F683" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E684" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F684" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E685" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="F685" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E686" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F686" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E687" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="F687" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E688">
         <v>76518</v>
@@ -16154,7 +16172,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E689">
         <v>76517</v>
@@ -16165,7 +16183,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E690">
         <v>37012</v>
@@ -16176,29 +16194,29 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E691" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="F691" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A692" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E692" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F692" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A693" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E693">
         <v>52373</v>
@@ -16209,7 +16227,7 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A694" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E694">
         <v>76516</v>
@@ -16271,26 +16289,26 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B3">
         <v>53026</v>
@@ -16298,227 +16316,227 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B5" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B6" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B7" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B10" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B11" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B16" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B17" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B18" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B19" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B20" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B21" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B22" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B23" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B24" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B25" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B26" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B28" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B29" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B30" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B31" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C32" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B33">
         <v>37012</v>
@@ -16526,194 +16544,194 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B34" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B35" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B36" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B37" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B39" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C40" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B41" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B42" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C43" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B47" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B53" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B54" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B55" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B56" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B63">
         <v>52373</v>
@@ -16721,22 +16739,22 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B67">
         <v>76518</v>
@@ -16744,7 +16762,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B68">
         <v>76517</v>
@@ -16752,326 +16770,326 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B69" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B76" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B77" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B78">
         <v>65193</v>
       </c>
       <c r="C78" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B79">
         <v>62715</v>
       </c>
       <c r="C79" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B80">
         <v>60443</v>
       </c>
       <c r="C80" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B81">
         <v>62719</v>
       </c>
       <c r="C81" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B82">
         <v>60441</v>
       </c>
       <c r="C82" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B83">
         <v>62717</v>
       </c>
       <c r="C83" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B84">
         <v>60445</v>
       </c>
       <c r="C84" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B85">
         <v>53005</v>
       </c>
       <c r="C85" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B86">
         <v>60446</v>
       </c>
       <c r="C86" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B87">
         <v>62684</v>
       </c>
       <c r="C87" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B88">
         <v>65091</v>
       </c>
       <c r="C88" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B89">
         <v>65089</v>
       </c>
       <c r="C89" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B90">
         <v>60410</v>
       </c>
       <c r="C90" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B91">
         <v>60412</v>
       </c>
       <c r="C91" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B92">
         <v>65095</v>
       </c>
       <c r="C92" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B93">
         <v>65094</v>
       </c>
       <c r="C93" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B94">
         <v>60413</v>
       </c>
       <c r="C94" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B95">
         <v>53004</v>
       </c>
       <c r="C95" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B96">
         <v>60414</v>
       </c>
       <c r="C96" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B97">
         <v>60415</v>
       </c>
       <c r="C97" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B98" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B99" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B100" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B102" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B103" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B104">
         <v>76516</v>
@@ -17079,87 +17097,87 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B105" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B107" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B109" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B116" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B117" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B118">
         <v>17909</v>
@@ -17167,228 +17185,228 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B129" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B130" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B162">
         <v>52975</v>
@@ -17396,7 +17414,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
   </sheetData>
